--- a/master.xlsx
+++ b/master.xlsx
@@ -1,64 +1,50 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28006"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smiki\workspace\excel_master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6126CB7F-61BA-45CE-AF4A-596A0401C573}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6930"/>
   </bookViews>
   <sheets>
-    <sheet name="PV" sheetId="1" r:id="rId1"/>
+    <sheet name="PV" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+  <si>
+    <t>payment</t>
+  </si>
+  <si>
+    <t># of periodds</t>
+  </si>
+  <si>
+    <t>period (m)</t>
+  </si>
+  <si>
+    <t>PV</t>
+  </si>
+  <si>
+    <t>Expense</t>
+  </si>
   <si>
     <t>PMNT</t>
   </si>
   <si>
-    <t>period (m)</t>
-  </si>
-  <si>
-    <t>payment</t>
-  </si>
-  <si>
     <t>interest (y)</t>
   </si>
   <si>
     <t>interest (p)</t>
   </si>
   <si>
-    <t># of periodds</t>
-  </si>
-  <si>
-    <t>PV</t>
-  </si>
-  <si>
-    <t>Expense</t>
-  </si>
-  <si>
     <t>overhead</t>
   </si>
   <si>
@@ -75,15 +61,12 @@
   </si>
   <si>
     <t>UniCredit 200k</t>
-  </si>
-  <si>
-    <t>3.00%</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.000%"/>
@@ -156,8 +139,8 @@
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -454,7 +437,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:O3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
@@ -476,30 +459,30 @@
     <col min="13" max="14" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:15" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="E2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>4</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>7</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>8</v>
@@ -527,28 +510,28 @@
       </c>
       <c r="D3" s="8">
         <f>PMT(F3,G3,H3)</f>
-        <v>-1068.6108516538063</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>14</v>
+        <v>-1049.1208334077355</v>
+      </c>
+      <c r="E3" s="9">
+        <v>2.3900000000000001E-2</v>
       </c>
       <c r="F3" s="2">
         <f>C3*E3/12</f>
-        <v>2.5000000000000001E-3</v>
+        <v>1.9916666666666668E-3</v>
       </c>
       <c r="G3" s="7">
-        <v>400</v>
+        <v>240</v>
       </c>
       <c r="H3" s="10">
-        <v>270000</v>
+        <v>200000</v>
       </c>
       <c r="I3" s="1">
         <f>-D3*G3</f>
-        <v>427444.34066152252</v>
+        <v>251789.00001785654</v>
       </c>
       <c r="J3" s="5">
         <f>I3-H3</f>
-        <v>157444.34066152252</v>
+        <v>51789.000017856539</v>
       </c>
       <c r="K3" s="5"/>
       <c r="L3" s="1">
@@ -560,15 +543,15 @@
       </c>
       <c r="N3" s="1">
         <f>(D3+M3)*1.96</f>
-        <v>-1554.4772692414604</v>
+        <v>-1516.2768334791615</v>
       </c>
       <c r="O3" s="6">
         <f>(M3*12)/H3</f>
-        <v>1.2244897959183673E-2</v>
+        <v>1.653061224489796E-2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>